--- a/input_datasheet.xlsx
+++ b/input_datasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481F0DC2-DA9B-4148-A13A-2F0707F7F8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460" tabRatio="933"/>
   </bookViews>
   <sheets>
-    <sheet name="datasheet" sheetId="14" r:id="rId1"/>
+    <sheet name="Description" sheetId="15" r:id="rId1"/>
+    <sheet name="datasheet" sheetId="14" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Torino</t>
   </si>
@@ -100,13 +100,61 @@
   </si>
   <si>
     <t>Almeria</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>A unique code for each solar installation (e.g., 'SOL123').</t>
+  </si>
+  <si>
+    <t>Latitude of the solar installation (in decimal degrees).</t>
+  </si>
+  <si>
+    <t>Longitude of the solar installation (in decimal degrees).</t>
+  </si>
+  <si>
+    <t>Azimuth angle of the solar panels.</t>
+  </si>
+  <si>
+    <t>Tilt angle of the solar panels.</t>
+  </si>
+  <si>
+    <t>Installed peak power of the solar system (in kW).</t>
+  </si>
+  <si>
+    <t>System losses (as a percentage).</t>
+  </si>
+  <si>
+    <t>Type of photovoltaic technology (e.g., 'crystalline').</t>
+  </si>
+  <si>
+    <t>Indicates whether the panels are on a building (building) or free (free).</t>
+  </si>
+  <si>
+    <t>The year when data collection should start.</t>
+  </si>
+  <si>
+    <t>The year when data collection should end.</t>
+  </si>
+  <si>
+    <t>Indicator of whether the panels are fixed (1) or use tracking (0).</t>
+  </si>
+  <si>
+    <t>Tracking type for panels that are not fixed (e.g., single-axis).</t>
+  </si>
+  <si>
+    <t>All these should be filled for proper code execution, make sure thay are all present in the "datasheet" sheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +191,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -222,10 +278,11 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2 2" xfId="1" xr:uid="{D17998BC-DA88-45F6-8BDE-BEDD213F1BD6}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,20 +559,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C45844-8A35-43DA-978B-64ADD8649EF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="27" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -564,7 +760,7 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -613,7 +809,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -657,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -701,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>22</v>
       </c>

--- a/input_datasheet.xlsx
+++ b/input_datasheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460" tabRatio="933"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460" tabRatio="933" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="15" r:id="rId1"/>
@@ -562,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
